--- a/data/intermediate/reseau/recategorize_designation_detaille.xlsx
+++ b/data/intermediate/reseau/recategorize_designation_detaille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/intermediate/reseau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{467F8636-0644-4EE7-B62B-0A685F2AF4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936DE320-36CB-4B6A-B407-6B8B25D0882F}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{467F8636-0644-4EE7-B62B-0A685F2AF4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A34CBC9-9868-4D00-A9E9-53B5F0787509}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="438">
   <si>
     <t>Désignation</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Loi Bioéthique 2021</t>
   </si>
   <si>
-    <t>Loi diverse</t>
-  </si>
-  <si>
     <t>Loi du 11 février 2005</t>
   </si>
   <si>
@@ -533,9 +530,6 @@
     <t>Presse Spécialisée diverse</t>
   </si>
   <si>
-    <t>Presse diverse</t>
-  </si>
-  <si>
     <t>Président</t>
   </si>
   <si>
@@ -746,15 +740,6 @@
     <t>Organismes recherches</t>
   </si>
   <si>
-    <t>divers recherche</t>
-  </si>
-  <si>
-    <t>Admin divers</t>
-  </si>
-  <si>
-    <t>Loi(s) diverse(s)</t>
-  </si>
-  <si>
     <t>Biologie</t>
   </si>
   <si>
@@ -779,12 +764,6 @@
     <t>Fiction</t>
   </si>
   <si>
-    <t>Ministères régaliens</t>
-  </si>
-  <si>
-    <t>sciences divers</t>
-  </si>
-  <si>
     <t>Droit</t>
   </si>
   <si>
@@ -809,9 +788,6 @@
     <t>Ministères Education, Recherche, Enseignement</t>
   </si>
   <si>
-    <t>Observatoires divers</t>
-  </si>
-  <si>
     <t>Agence française de sécurité sanitaire de l’environnement et du travail</t>
   </si>
   <si>
@@ -1359,6 +1335,18 @@
   </si>
   <si>
     <t>Belge Institutions</t>
+  </si>
+  <si>
+    <t>Nuffield Council on Bioethics (UK)</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Irlande</t>
+  </si>
+  <si>
+    <t>Brésil</t>
   </si>
 </sst>
 </file>
@@ -1407,14 +1395,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1432,15 +1425,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74E48EA6-D00C-44C7-827C-672438CB5CD0}" name="Tableau1" displayName="Tableau1" ref="A1:D375" totalsRowShown="0">
-  <autoFilter ref="A1:D375" xr:uid="{74E48EA6-D00C-44C7-827C-672438CB5CD0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D364">
-    <sortCondition descending="1" ref="B1:B1048545"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74E48EA6-D00C-44C7-827C-672438CB5CD0}" name="Tableau1" displayName="Tableau1" ref="A1:D372" totalsRowShown="0">
+  <autoFilter ref="A1:D372" xr:uid="{74E48EA6-D00C-44C7-827C-672438CB5CD0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D361">
+    <sortCondition descending="1" ref="B1:B1048542"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2536FB48-B587-4C50-8117-0D0C34C6FE51}" name="Désignation"/>
     <tableColumn id="2" xr3:uid="{D8756DD3-2789-4F4A-9796-E0AEC0E685A0}" name="count"/>
-    <tableColumn id="3" xr3:uid="{8BC3709F-EA74-45EF-9043-1AD72DA2B468}" name="Rename"/>
+    <tableColumn id="3" xr3:uid="{8BC3709F-EA74-45EF-9043-1AD72DA2B468}" name="Rename" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{D3B29DED-5DBB-44A9-B96C-1D65F6E368B3}" name="Groupe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1726,16 +1719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="D378" sqref="D378"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1746,470 +1739,470 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>223</v>
+      <c r="C1" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>266</v>
       </c>
-      <c r="C2" t="s">
-        <v>246</v>
+      <c r="C2" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
-        <v>172</v>
+      <c r="C3" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
-        <v>379</v>
+      <c r="C4" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>243</v>
+      <c r="C5" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
-        <v>140</v>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>240</v>
+      <c r="C7" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B8">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>239</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B9">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>243</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>380</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B13">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B15">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>250</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B16">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>242</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B17">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="B18">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>413</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>47</v>
+      <c r="C20" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>241</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>246</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>61</v>
+      <c r="C23" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>155</v>
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>244</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>240</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>414</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B33">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>231</v>
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
-      <c r="C34" t="s">
-        <v>123</v>
+      <c r="C34" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D34" t="s">
         <v>227</v>
@@ -2217,265 +2210,265 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>415</v>
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>245</v>
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B37">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="B38">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>157</v>
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>416</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D41" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
-        <v>275</v>
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>417</v>
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>7</v>
       </c>
-      <c r="C46" t="s">
-        <v>225</v>
+      <c r="C46" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>378</v>
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>174</v>
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>418</v>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51" t="s">
-        <v>35</v>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>71</v>
+      <c r="C52" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
-        <v>73</v>
+      <c r="C53" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D53" t="s">
         <v>227</v>
@@ -2483,391 +2476,391 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
-        <v>78</v>
+      <c r="C54" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>95</v>
+      <c r="C55" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" t="s">
-        <v>103</v>
+      <c r="C56" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
-      <c r="C57" t="s">
-        <v>158</v>
+      <c r="C57" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>167</v>
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
-        <v>180</v>
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
-        <v>31</v>
+      <c r="C61" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
-        <v>41</v>
+      <c r="C62" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
-        <v>45</v>
+      <c r="C63" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
-        <v>46</v>
+      <c r="C64" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
-        <v>91</v>
+      <c r="C65" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
+      <c r="C66" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" t="s">
-        <v>113</v>
+      <c r="C67" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
-      <c r="C68" t="s">
-        <v>138</v>
+      <c r="C68" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>279</v>
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>271</v>
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
-        <v>7</v>
+      <c r="C72" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
-      <c r="C73" t="s">
-        <v>8</v>
+      <c r="C73" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
-        <v>34</v>
+      <c r="C74" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
-      <c r="C75" t="s">
-        <v>64</v>
+      <c r="C75" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>68</v>
+      <c r="C76" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
-        <v>80</v>
+      <c r="C77" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78" t="s">
-        <v>98</v>
+      <c r="C78" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
-      <c r="C79" t="s">
-        <v>107</v>
+      <c r="C79" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
-      <c r="C80" t="s">
-        <v>117</v>
+      <c r="C80" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
-      <c r="C81" t="s">
-        <v>120</v>
+      <c r="C81" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D81" t="s">
         <v>227</v>
@@ -2875,293 +2868,293 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B82">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
-        <v>122</v>
+      <c r="C82" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B83">
         <v>4</v>
       </c>
-      <c r="C83" t="s">
-        <v>419</v>
+      <c r="C83" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
-      <c r="C84" t="s">
-        <v>135</v>
+      <c r="C84" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="C85" t="s">
-        <v>146</v>
+      <c r="C85" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
-      <c r="C86" t="s">
-        <v>251</v>
+      <c r="C86" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
-      <c r="C87" t="s">
-        <v>162</v>
+      <c r="C87" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D87" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="B88">
         <v>4</v>
       </c>
-      <c r="C88" t="s">
-        <v>169</v>
+      <c r="C88" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>252</v>
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>247</v>
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>273</v>
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93" t="s">
-        <v>420</v>
+      <c r="C93" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94" t="s">
-        <v>26</v>
+      <c r="C94" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
-      <c r="C95" t="s">
-        <v>36</v>
+      <c r="C95" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
-        <v>38</v>
+      <c r="C96" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" t="s">
-        <v>67</v>
+      <c r="C97" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
-      <c r="C98" t="s">
-        <v>72</v>
+      <c r="C98" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
-      <c r="C99" t="s">
-        <v>112</v>
+      <c r="C99" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
-      <c r="C100" t="s">
-        <v>114</v>
+      <c r="C100" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
-      <c r="C101" t="s">
-        <v>121</v>
+      <c r="C101" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
-      <c r="C102" t="s">
-        <v>124</v>
+      <c r="C102" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D102" t="s">
         <v>227</v>
@@ -3169,461 +3162,461 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
-        <v>125</v>
+      <c r="C103" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D103" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
-      <c r="C104" t="s">
-        <v>126</v>
+      <c r="C104" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="D104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
-      <c r="C105" t="s">
-        <v>257</v>
+      <c r="C105" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
-      <c r="C106" t="s">
-        <v>255</v>
+      <c r="C106" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
-      <c r="C107" t="s">
-        <v>421</v>
+      <c r="C107" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D107" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
-      <c r="C108" t="s">
-        <v>147</v>
+      <c r="C108" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D108" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
-      <c r="C109" t="s">
-        <v>168</v>
+      <c r="C109" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
-      <c r="C110" t="s">
-        <v>246</v>
+      <c r="C110" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D110" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
-      <c r="C111" t="s">
-        <v>253</v>
+      <c r="C111" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>247</v>
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>422</v>
+        <v>2</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D113" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>423</v>
+        <v>2</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
-      <c r="C115" t="s">
-        <v>232</v>
+      <c r="C115" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
-      <c r="C116" t="s">
-        <v>251</v>
+      <c r="C116" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
-      <c r="C117" t="s">
-        <v>50</v>
+      <c r="C117" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
-        <v>51</v>
+      <c r="C118" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
-      <c r="C119" t="s">
-        <v>234</v>
+      <c r="C119" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
-      <c r="C120" t="s">
-        <v>235</v>
+      <c r="C120" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
-      <c r="C121" t="s">
-        <v>26</v>
+      <c r="C121" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D121" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
-      <c r="C122" t="s">
-        <v>87</v>
+      <c r="C122" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
-      <c r="C123" t="s">
-        <v>76</v>
+      <c r="C123" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D123" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="C124" t="s">
-        <v>77</v>
+      <c r="C124" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
-      <c r="C125" t="s">
-        <v>424</v>
+      <c r="C125" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D125" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
-      <c r="C126" t="s">
-        <v>84</v>
+      <c r="C126" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D126" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
-      <c r="C127" t="s">
-        <v>85</v>
+      <c r="C127" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
-      <c r="C128" t="s">
-        <v>86</v>
+      <c r="C128" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="C129" t="s">
-        <v>87</v>
+      <c r="C129" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
-      <c r="C130" t="s">
-        <v>88</v>
+      <c r="C130" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
-      <c r="C131" t="s">
-        <v>93</v>
+      <c r="C131" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
-      <c r="C132" t="s">
-        <v>96</v>
+      <c r="C132" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D132" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
-      <c r="C133" t="s">
-        <v>52</v>
+      <c r="C133" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
-      <c r="C134" t="s">
-        <v>111</v>
+      <c r="C134" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D134" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
-      <c r="C135" t="s">
-        <v>115</v>
+      <c r="C135" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D135" t="s">
         <v>227</v>
@@ -3631,13 +3624,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-      <c r="C136" t="s">
-        <v>118</v>
+      <c r="C136" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D136" t="s">
         <v>227</v>
@@ -3645,13 +3638,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-      <c r="C137" t="s">
-        <v>119</v>
+      <c r="C137" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D137" t="s">
         <v>227</v>
@@ -3659,209 +3652,209 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
-      <c r="C138" t="s">
-        <v>140</v>
+      <c r="C138" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D138" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
-      <c r="C139" t="s">
-        <v>137</v>
+      <c r="C139" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-      <c r="C140" t="s">
-        <v>140</v>
+      <c r="C140" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D140" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
-      <c r="C141" t="s">
-        <v>148</v>
+      <c r="C141" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D141" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
-      <c r="C142" t="s">
-        <v>155</v>
+      <c r="C142" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D142" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
-      <c r="C143" t="s">
-        <v>254</v>
+      <c r="C143" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
-      <c r="C144" t="s">
-        <v>170</v>
+      <c r="C144" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B145">
         <v>2</v>
       </c>
-      <c r="C145" t="s">
-        <v>177</v>
+      <c r="C145" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D145" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
-      <c r="C146" t="s">
-        <v>241</v>
+      <c r="C146" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B147">
         <v>2</v>
       </c>
-      <c r="C147" t="s">
-        <v>230</v>
+      <c r="C147" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
-      <c r="C148" t="s">
-        <v>203</v>
+      <c r="C148" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D148" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="D149" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>214</v>
+        <v>2</v>
       </c>
       <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150" t="s">
-        <v>256</v>
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D150" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D151" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="C152" t="s">
-        <v>239</v>
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D152" t="s">
         <v>227</v>
@@ -3869,2677 +3862,2635 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153" t="s">
-        <v>231</v>
+      <c r="C153" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" t="s">
-        <v>231</v>
+      <c r="C154" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D154" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" t="s">
-        <v>231</v>
+      <c r="C155" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="D155" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" t="s">
-        <v>164</v>
+      <c r="C156" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D156" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" t="s">
-        <v>221</v>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D157" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-      <c r="C158" t="s">
-        <v>224</v>
+      <c r="C158" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D158" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
-      <c r="C161" t="s">
-        <v>19</v>
+      <c r="C161" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D161" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" t="s">
-        <v>237</v>
+      <c r="C162" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" t="s">
-        <v>237</v>
+      <c r="C163" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D163" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" t="s">
-        <v>225</v>
+      <c r="C164" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D164" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" t="s">
-        <v>180</v>
+      <c r="C165" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" t="s">
-        <v>140</v>
+      <c r="C166" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-      <c r="C167" t="s">
-        <v>230</v>
+      <c r="C167" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D167" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168" t="s">
-        <v>414</v>
+      <c r="C168" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D168" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-      <c r="C169" t="s">
-        <v>225</v>
+      <c r="C169" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D169" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-      <c r="C170" t="s">
-        <v>140</v>
+      <c r="C170" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-      <c r="C171" t="s">
-        <v>140</v>
+      <c r="C171" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D171" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" t="s">
-        <v>55</v>
+      <c r="C173" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D173" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
-        <v>140</v>
+      <c r="C174" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D174" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="D175" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="D176" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-      <c r="C177" t="s">
-        <v>167</v>
+      <c r="C177" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D177" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-      <c r="C178" t="s">
-        <v>258</v>
+      <c r="C178" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D178" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
-        <v>258</v>
+      <c r="C179" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D179" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-      <c r="C180" t="s">
-        <v>256</v>
+      <c r="C180" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D180" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181" t="s">
-        <v>180</v>
+      <c r="C181" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D181" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
-        <v>155</v>
+      <c r="C182" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D182" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="D183" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-      <c r="C184" t="s">
-        <v>221</v>
+      <c r="C184" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D184" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="D185" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="D186" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-      <c r="C187" t="s">
-        <v>97</v>
+      <c r="C187" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D187" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-      <c r="C188" t="s">
-        <v>36</v>
+      <c r="C188" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="D188" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="D189" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-      <c r="C190" t="s">
-        <v>231</v>
+      <c r="C190" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D190" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
-      <c r="C191" t="s">
-        <v>224</v>
+      <c r="C191" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D191" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-      <c r="C192" t="s">
-        <v>166</v>
+      <c r="C192" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D192" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D193" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="D194" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="D195" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="D196" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-      <c r="C197" t="s">
-        <v>248</v>
+      <c r="C197" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D197" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-      <c r="C198" t="s">
-        <v>248</v>
+      <c r="C198" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D198" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D199" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="D200" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-      <c r="C201" t="s">
-        <v>257</v>
+      <c r="C201" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D201" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
-      <c r="C202" t="s">
-        <v>248</v>
+      <c r="C202" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="D203" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D204" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
-      <c r="C205" t="s">
-        <v>231</v>
+      <c r="C205" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D205" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
-      <c r="C206" t="s">
-        <v>258</v>
+      <c r="C206" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D206" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-      <c r="C207" t="s">
-        <v>258</v>
+      <c r="C207" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D207" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
-      <c r="C208" t="s">
-        <v>163</v>
+      <c r="C208" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D208" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
-      <c r="C209" t="s">
-        <v>221</v>
+      <c r="C209" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D209" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
-      <c r="C210" t="s">
-        <v>155</v>
+      <c r="C210" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D210" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
-      <c r="C211" t="s">
-        <v>155</v>
+      <c r="C211" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D211" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
-      <c r="C212" t="s">
-        <v>155</v>
+      <c r="C212" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D212" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D213" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
-      <c r="C214" t="s">
-        <v>155</v>
+      <c r="C214" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D214" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
-      <c r="C215" t="s">
-        <v>180</v>
+      <c r="C215" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="D215" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
-      <c r="C216" t="s">
-        <v>254</v>
+      <c r="C216" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D216" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="D217" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218" t="s">
-        <v>414</v>
+      <c r="C218" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D218" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D219" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
-      <c r="C220" t="s">
-        <v>249</v>
+      <c r="C220" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D220" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
-      <c r="C221" t="s">
-        <v>230</v>
+      <c r="C221" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
-      <c r="C222" t="s">
-        <v>249</v>
+      <c r="C222" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D222" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="D223" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>259</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-      <c r="C224" t="s">
-        <v>231</v>
+        <v>257</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="D224" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>263</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>251</v>
+        <v>258</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D225" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>274</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-      <c r="C226" t="s">
-        <v>239</v>
+        <v>259</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D226" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>265</v>
-      </c>
-      <c r="C227" t="s">
+        <v>260</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D227" t="s">
         <v>231</v>
-      </c>
-      <c r="D227" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>266</v>
-      </c>
-      <c r="C228" t="s">
+        <v>261</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D228" t="s">
         <v>224</v>
-      </c>
-      <c r="D228" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>267</v>
-      </c>
-      <c r="C229" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D229" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>268</v>
       </c>
-      <c r="C230" t="s">
-        <v>35</v>
+      <c r="C230" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D230" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>269</v>
       </c>
-      <c r="C231" t="s">
-        <v>224</v>
+      <c r="C231" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D231" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="C232" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="D232" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>276</v>
-      </c>
-      <c r="C233" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D233" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>277</v>
-      </c>
-      <c r="C234" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D234" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>281</v>
-      </c>
-      <c r="C235" t="s">
-        <v>239</v>
+        <v>340</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D235" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>280</v>
-      </c>
-      <c r="C236" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="D236" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>282</v>
-      </c>
-      <c r="C237" t="s">
-        <v>282</v>
+        <v>361</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D237" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>348</v>
-      </c>
-      <c r="C238" t="s">
-        <v>348</v>
+        <v>276</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D238" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>283</v>
-      </c>
-      <c r="C239" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="D239" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>369</v>
-      </c>
-      <c r="C240" t="s">
-        <v>377</v>
+        <v>362</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>284</v>
-      </c>
-      <c r="C241" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D241" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>285</v>
-      </c>
-      <c r="C242" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D242" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>370</v>
-      </c>
-      <c r="C243" t="s">
-        <v>370</v>
+        <v>280</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="D243" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>286</v>
-      </c>
-      <c r="C244" t="s">
-        <v>286</v>
+        <v>341</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="D244" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>287</v>
-      </c>
-      <c r="C245" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D245" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>288</v>
-      </c>
-      <c r="C246" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D246" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>349</v>
-      </c>
-      <c r="C247" t="s">
-        <v>349</v>
+        <v>283</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D247" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>289</v>
-      </c>
-      <c r="C248" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="D248" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>290</v>
-      </c>
-      <c r="C249" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="D249" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>291</v>
-      </c>
-      <c r="C250" t="s">
-        <v>291</v>
+        <v>342</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="D250" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>292</v>
-      </c>
-      <c r="C251" t="s">
-        <v>292</v>
+        <v>367</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="D251" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>293</v>
-      </c>
-      <c r="C252" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D252" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>350</v>
-      </c>
-      <c r="C253" t="s">
-        <v>350</v>
+        <v>343</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="D253" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>375</v>
-      </c>
-      <c r="C254" t="s">
-        <v>375</v>
+        <v>287</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D254" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>294</v>
-      </c>
-      <c r="C255" t="s">
-        <v>294</v>
+        <v>288</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D255" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>351</v>
-      </c>
-      <c r="C256" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D256" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>295</v>
-      </c>
-      <c r="C257" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="D257" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>296</v>
-      </c>
-      <c r="C258" t="s">
-        <v>296</v>
+        <v>344</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="D258" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>297</v>
-      </c>
-      <c r="C259" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D259" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>298</v>
-      </c>
-      <c r="C260" t="s">
-        <v>298</v>
+        <v>363</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="D260" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>352</v>
-      </c>
-      <c r="C261" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="D261" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>299</v>
-      </c>
-      <c r="C262" t="s">
-        <v>299</v>
+        <v>292</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D262" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>371</v>
-      </c>
-      <c r="C263" t="s">
-        <v>371</v>
+        <v>364</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="D263" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>353</v>
-      </c>
-      <c r="C264" t="s">
-        <v>425</v>
+        <v>365</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="D264" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>300</v>
-      </c>
-      <c r="C265" t="s">
-        <v>300</v>
+        <v>346</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="D265" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>372</v>
-      </c>
-      <c r="C266" t="s">
-        <v>372</v>
+        <v>293</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D266" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>373</v>
-      </c>
-      <c r="C267" t="s">
-        <v>373</v>
+        <v>294</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D267" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>354</v>
-      </c>
-      <c r="C268" t="s">
-        <v>426</v>
+        <v>295</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D268" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>301</v>
-      </c>
-      <c r="C269" t="s">
-        <v>301</v>
+        <v>347</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="D269" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>302</v>
-      </c>
-      <c r="C270" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="D270" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>303</v>
-      </c>
-      <c r="C271" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D271" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>355</v>
-      </c>
-      <c r="C272" t="s">
-        <v>355</v>
+        <v>298</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D272" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>304</v>
-      </c>
-      <c r="C273" t="s">
-        <v>304</v>
+        <v>299</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D273" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>305</v>
-      </c>
-      <c r="C274" t="s">
-        <v>305</v>
+        <v>348</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="D274" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>306</v>
-      </c>
-      <c r="C275" t="s">
-        <v>306</v>
+        <v>300</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D275" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>307</v>
-      </c>
-      <c r="C276" t="s">
-        <v>307</v>
+        <v>349</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="D276" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>356</v>
-      </c>
-      <c r="C277" t="s">
-        <v>356</v>
+        <v>419</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="D277" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>308</v>
-      </c>
-      <c r="C278" t="s">
-        <v>308</v>
+        <v>301</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="D278" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>357</v>
-      </c>
-      <c r="C279" t="s">
-        <v>427</v>
+        <v>302</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D279" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>427</v>
-      </c>
-      <c r="C280" t="s">
-        <v>427</v>
+        <v>303</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D280" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>309</v>
-      </c>
-      <c r="C281" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="D281" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>310</v>
-      </c>
-      <c r="C282" t="s">
-        <v>310</v>
+        <v>350</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D282" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>311</v>
-      </c>
-      <c r="C283" t="s">
-        <v>311</v>
+        <v>305</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D283" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>312</v>
-      </c>
-      <c r="C284" t="s">
-        <v>428</v>
+        <v>351</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D284" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>358</v>
-      </c>
-      <c r="C285" t="s">
-        <v>358</v>
+        <v>306</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D285" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>313</v>
-      </c>
-      <c r="C286" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D286" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>359</v>
-      </c>
-      <c r="C287" t="s">
-        <v>359</v>
+        <v>308</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D287" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>314</v>
-      </c>
-      <c r="C288" t="s">
-        <v>314</v>
+        <v>309</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D288" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>315</v>
-      </c>
-      <c r="C289" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D289" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>316</v>
-      </c>
-      <c r="C290" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D290" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>317</v>
-      </c>
-      <c r="C291" t="s">
-        <v>317</v>
+        <v>352</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="D291" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>318</v>
-      </c>
-      <c r="C292" t="s">
-        <v>318</v>
+        <v>353</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D292" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>319</v>
-      </c>
-      <c r="C293" t="s">
-        <v>319</v>
+        <v>312</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D293" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>360</v>
-      </c>
-      <c r="C294" t="s">
-        <v>360</v>
+        <v>313</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D294" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>361</v>
-      </c>
-      <c r="C295" t="s">
-        <v>361</v>
+        <v>314</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D295" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>320</v>
-      </c>
-      <c r="C296" t="s">
-        <v>320</v>
+        <v>368</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="D296" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>321</v>
-      </c>
-      <c r="C297" t="s">
-        <v>321</v>
+        <v>315</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="D297" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>322</v>
-      </c>
-      <c r="C298" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D298" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>376</v>
-      </c>
-      <c r="C299" t="s">
-        <v>376</v>
+        <v>317</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D299" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>323</v>
-      </c>
-      <c r="C300" t="s">
-        <v>429</v>
+        <v>318</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="D300" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>324</v>
-      </c>
-      <c r="C301" t="s">
-        <v>430</v>
+        <v>319</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="D301" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>325</v>
-      </c>
-      <c r="C302" t="s">
-        <v>266</v>
+        <v>320</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D302" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>326</v>
-      </c>
-      <c r="C303" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D303" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>327</v>
-      </c>
-      <c r="C304" t="s">
-        <v>327</v>
+        <v>322</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D304" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>328</v>
-      </c>
-      <c r="C305" t="s">
-        <v>328</v>
+        <v>354</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D305" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>329</v>
-      </c>
-      <c r="C306" t="s">
-        <v>329</v>
+        <v>323</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D306" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>330</v>
-      </c>
-      <c r="C307" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D307" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>362</v>
-      </c>
-      <c r="C308" t="s">
-        <v>362</v>
+        <v>325</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D308" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>331</v>
-      </c>
-      <c r="C309" t="s">
-        <v>331</v>
+        <v>326</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="D309" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>332</v>
-      </c>
-      <c r="C310" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D310" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>333</v>
-      </c>
-      <c r="C311" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D311" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>334</v>
-      </c>
-      <c r="C312" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D312" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>335</v>
-      </c>
-      <c r="C313" t="s">
-        <v>335</v>
+        <v>366</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="D313" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>336</v>
-      </c>
-      <c r="C314" t="s">
-        <v>336</v>
+        <v>355</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="D314" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>337</v>
-      </c>
-      <c r="C315" t="s">
-        <v>337</v>
+        <v>356</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D315" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>374</v>
-      </c>
-      <c r="C316" t="s">
-        <v>374</v>
+        <v>357</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="D316" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>363</v>
-      </c>
-      <c r="C317" t="s">
-        <v>363</v>
+        <v>330</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D317" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>364</v>
-      </c>
-      <c r="C318" t="s">
-        <v>364</v>
+        <v>358</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="D318" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>365</v>
-      </c>
-      <c r="C319" t="s">
-        <v>365</v>
+        <v>331</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D319" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>338</v>
-      </c>
-      <c r="C320" t="s">
-        <v>338</v>
+        <v>359</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="D320" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>366</v>
-      </c>
-      <c r="C321" t="s">
-        <v>366</v>
+        <v>332</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="D321" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>339</v>
-      </c>
-      <c r="C322" t="s">
-        <v>339</v>
+        <v>333</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="D322" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>367</v>
-      </c>
-      <c r="C323" t="s">
-        <v>367</v>
+        <v>334</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D323" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>340</v>
-      </c>
-      <c r="C324" t="s">
-        <v>431</v>
+        <v>335</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D324" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>341</v>
-      </c>
-      <c r="C325" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D325" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>342</v>
-      </c>
-      <c r="C326" t="s">
-        <v>342</v>
+        <v>360</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="D326" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>343</v>
-      </c>
-      <c r="C327" t="s">
-        <v>343</v>
+        <v>337</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D327" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>344</v>
-      </c>
-      <c r="C328" t="s">
-        <v>311</v>
+        <v>338</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D328" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>368</v>
-      </c>
-      <c r="C329" t="s">
-        <v>368</v>
+        <v>267</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D329" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>345</v>
-      </c>
-      <c r="C330" t="s">
-        <v>345</v>
+        <v>339</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="D330" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>346</v>
-      </c>
-      <c r="C331" t="s">
-        <v>346</v>
+        <v>373</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="D331" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>275</v>
-      </c>
-      <c r="C332" t="s">
-        <v>275</v>
+        <v>374</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D332" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>347</v>
-      </c>
-      <c r="C333" t="s">
-        <v>347</v>
+        <v>400</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="D333" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>381</v>
-      </c>
-      <c r="C334" t="s">
-        <v>381</v>
+        <v>401</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="D334" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>382</v>
-      </c>
-      <c r="C335" t="s">
-        <v>382</v>
+        <v>375</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="D335" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>408</v>
-      </c>
-      <c r="C336" t="s">
-        <v>408</v>
+        <v>376</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="D336" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>409</v>
-      </c>
-      <c r="C337" t="s">
-        <v>409</v>
+        <v>377</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="D337" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>383</v>
-      </c>
-      <c r="C338" t="s">
-        <v>383</v>
+        <v>378</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="D338" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>384</v>
-      </c>
-      <c r="C339" t="s">
-        <v>384</v>
+        <v>379</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="D339" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>385</v>
-      </c>
-      <c r="C340" t="s">
-        <v>385</v>
+        <v>380</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D340" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>386</v>
-      </c>
-      <c r="C341" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="D341" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>387</v>
-      </c>
-      <c r="C342" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="D342" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>388</v>
-      </c>
-      <c r="C343" t="s">
-        <v>170</v>
+        <v>383</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="D343" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>389</v>
-      </c>
-      <c r="C344" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="D344" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>390</v>
-      </c>
-      <c r="C345" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="D345" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>391</v>
-      </c>
-      <c r="C346" t="s">
-        <v>391</v>
+        <v>386</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="D346" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>392</v>
-      </c>
-      <c r="C347" t="s">
-        <v>392</v>
+        <v>387</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D347" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>393</v>
-      </c>
-      <c r="C348" t="s">
-        <v>393</v>
+        <v>388</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D348" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>394</v>
-      </c>
-      <c r="C349" t="s">
-        <v>412</v>
+        <v>389</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D349" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>395</v>
-      </c>
-      <c r="C350" t="s">
-        <v>395</v>
+        <v>390</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D350" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>396</v>
-      </c>
-      <c r="C351" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="D351" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>397</v>
-      </c>
-      <c r="C352" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="D352" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>398</v>
-      </c>
-      <c r="C353" t="s">
-        <v>398</v>
+        <v>393</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="D353" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>399</v>
-      </c>
-      <c r="C354" t="s">
-        <v>399</v>
+        <v>394</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="D354" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>400</v>
-      </c>
-      <c r="C355" t="s">
-        <v>400</v>
+        <v>395</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="D355" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>401</v>
-      </c>
-      <c r="C356" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="D356" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>402</v>
-      </c>
-      <c r="C357" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="D357" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>403</v>
-      </c>
-      <c r="C358" t="s">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="D358" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>404</v>
-      </c>
-      <c r="C359" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D359" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>405</v>
-      </c>
-      <c r="C360" t="s">
-        <v>405</v>
+        <v>399</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="D360" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>406</v>
-      </c>
-      <c r="C361" t="s">
-        <v>406</v>
+        <v>403</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="D361" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>410</v>
-      </c>
-      <c r="C362" t="s">
-        <v>410</v>
+        <v>52</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D362" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>407</v>
-      </c>
-      <c r="C363" t="s">
-        <v>407</v>
+        <v>424</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D363" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>411</v>
-      </c>
-      <c r="C364" t="s">
-        <v>411</v>
+        <v>425</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D364" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>52</v>
-      </c>
-      <c r="C365" t="s">
-        <v>52</v>
+        <v>426</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D365" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>432</v>
-      </c>
-      <c r="C366" t="s">
-        <v>162</v>
+        <v>427</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D366" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>433</v>
-      </c>
-      <c r="C367" t="s">
-        <v>168</v>
+        <v>428</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="D367" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>434</v>
-      </c>
-      <c r="C368" t="s">
-        <v>434</v>
+        <v>429</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D368" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>435</v>
-      </c>
-      <c r="C369" t="s">
-        <v>435</v>
+        <v>430</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D369" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>436</v>
-      </c>
-      <c r="C370" t="s">
-        <v>331</v>
+        <v>431</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="D370" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>437</v>
-      </c>
-      <c r="C371" t="s">
-        <v>140</v>
-      </c>
-      <c r="D371" t="s">
-        <v>229</v>
+        <v>432</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>438</v>
-      </c>
-      <c r="C372" t="s">
-        <v>140</v>
+        <v>433</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D372" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>439</v>
-      </c>
-      <c r="C373" t="s">
-        <v>431</v>
-      </c>
-      <c r="D373" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>440</v>
-      </c>
-      <c r="C374" t="s">
-        <v>70</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>441</v>
-      </c>
-      <c r="C375" t="s">
-        <v>418</v>
-      </c>
-      <c r="D375" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
